--- a/plots/basic_stats/single_var_stats/allmus_summary_var-country_name.xlsx
+++ b/plots/basic_stats/single_var_stats/allmus_summary_var-country_name.xlsx
@@ -386,10 +386,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>3034</v>
+        <v>3190</v>
       </c>
       <c r="C2">
-        <v>75.62</v>
+        <v>75.43000000000001</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -404,10 +404,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>594</v>
+        <v>623</v>
       </c>
       <c r="C3">
-        <v>14.81</v>
+        <v>14.73</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -422,10 +422,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C4">
-        <v>6.11</v>
+        <v>6.15</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -440,10 +440,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C5">
-        <v>2.42</v>
+        <v>2.53</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C6">
-        <v>1.05</v>
+        <v>1.16</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
